--- a/resources/movie/1.xlsx
+++ b/resources/movie/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nnch/Documents/Github/jpc16-kahoot-game/resources/movie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22CA020-7E9C-1C46-BFC7-F1BC4E2F40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EA26E-9602-614D-827A-6B815F2860BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,19 @@
     <sheet name="5 Quiz" sheetId="24" r:id="rId8"/>
     <sheet name="RawReportData Data" sheetId="25" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="121">
   <si>
     <t>Played on</t>
   </si>
@@ -362,10 +373,40 @@
     <t>21.93%</t>
   </si>
   <si>
-    <t>4-Oat</t>
-  </si>
-  <si>
-    <t>2-PP</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6-Fluke</t>
+  </si>
+  <si>
+    <t>6-Kao</t>
+  </si>
+  <si>
+    <t>6-Film</t>
+  </si>
+  <si>
+    <t>6-NEW</t>
+  </si>
+  <si>
+    <t>6-Party</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>1783</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>183</t>
   </si>
 </sst>
 </file>
@@ -381,7 +422,7 @@
     <numFmt numFmtId="169" formatCode="0.00%&quot; Neutral&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00%&quot; Negative&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="14"/>
@@ -515,6 +556,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -747,7 +794,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -930,6 +977,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BE532A-BE0E-A14A-A6A9-57E8BEA71E90}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1691,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3783</v>
+        <v>112</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="D4" s="23">
         <v>4</v>
@@ -1708,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="23">
         <v>2598</v>
@@ -1719,6 +1769,63 @@
       <c r="E5" s="23">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="23">
+        <v>4</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="23">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="61"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
